--- a/src/assets/kehoachgiaohang.xlsx
+++ b/src/assets/kehoachgiaohang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\linh tinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TransFleet\transfleet-frontend\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E601FFBB-26E3-4348-989D-D369C905E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F120D9-C5EA-4678-B636-A6A3F3828161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B01530D3-0BA2-4940-978E-4D61F07D8349}"/>
+    <workbookView xWindow="4800" yWindow="2565" windowWidth="21600" windowHeight="11295" xr2:uid="{B01530D3-0BA2-4940-978E-4D61F07D8349}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,11 +128,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
@@ -467,23 +479,23 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="26" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="21" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -498,13 +510,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
